--- a/dataanalysis/data/predictions/1200/08201134_1136.xlsx
+++ b/dataanalysis/data/predictions/1200/08201134_1136.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="178">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-20</t>
   </si>
   <si>
@@ -545,9 +548,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -905,13 +905,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH88"/>
+  <dimension ref="A1:AI88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1014,19 +1014,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-3.32</v>
@@ -1044,7 +1047,7 @@
         <v>86414.02</v>
       </c>
       <c r="J2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -1085,8 +1088,23 @@
       <c r="W2">
         <v>-1.93</v>
       </c>
+      <c r="X2">
+        <v>-0.27</v>
+      </c>
+      <c r="Y2">
+        <v>12.19</v>
+      </c>
+      <c r="Z2">
+        <v>10.22</v>
+      </c>
       <c r="AC2" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1094,22 +1112,25 @@
       <c r="AG2">
         <v>2.018851518630981</v>
       </c>
-      <c r="AH2" t="s">
-        <v>177</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300033</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-2.72</v>
@@ -1127,7 +1148,7 @@
         <v>307386.57</v>
       </c>
       <c r="J3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -1168,8 +1189,23 @@
       <c r="W3">
         <v>-0.38</v>
       </c>
+      <c r="X3">
+        <v>-1.54</v>
+      </c>
+      <c r="Y3">
+        <v>393.18</v>
+      </c>
+      <c r="Z3">
+        <v>3.83</v>
+      </c>
       <c r="AC3" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1177,22 +1213,25 @@
       <c r="AG3">
         <v>-0.9365731477737427</v>
       </c>
-      <c r="AH3" t="s">
-        <v>177</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300049</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-3.25</v>
@@ -1210,7 +1249,7 @@
         <v>275393</v>
       </c>
       <c r="J4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K4">
         <v>10</v>
@@ -1251,8 +1290,23 @@
       <c r="W4">
         <v>-2.02</v>
       </c>
+      <c r="X4">
+        <v>-4.63</v>
+      </c>
+      <c r="Y4">
+        <v>73.88</v>
+      </c>
+      <c r="Z4">
+        <v>5.72</v>
+      </c>
       <c r="AC4" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1260,22 +1314,25 @@
       <c r="AG4">
         <v>10.79466724395752</v>
       </c>
-      <c r="AH4" t="s">
-        <v>177</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300066</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>5.65</v>
@@ -1293,7 +1350,7 @@
         <v>135833</v>
       </c>
       <c r="J5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K5">
         <v>10</v>
@@ -1334,8 +1391,23 @@
       <c r="W5">
         <v>1.38</v>
       </c>
+      <c r="X5">
+        <v>-6.52</v>
+      </c>
+      <c r="Y5">
+        <v>7.52</v>
+      </c>
+      <c r="Z5">
+        <v>0.53</v>
+      </c>
       <c r="AC5" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1343,22 +1415,25 @@
       <c r="AG5">
         <v>4.804839134216309</v>
       </c>
-      <c r="AH5" t="s">
-        <v>177</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300184</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>-0.95</v>
@@ -1376,7 +1451,7 @@
         <v>97356.37</v>
       </c>
       <c r="J6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1417,8 +1492,23 @@
       <c r="W6">
         <v>-0.22</v>
       </c>
+      <c r="X6">
+        <v>2.48</v>
+      </c>
+      <c r="Y6">
+        <v>12.48</v>
+      </c>
+      <c r="Z6">
+        <v>9</v>
+      </c>
       <c r="AC6" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1426,22 +1516,25 @@
       <c r="AG6">
         <v>-39.35298156738281</v>
       </c>
-      <c r="AH6" t="s">
-        <v>177</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300199</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-1.71</v>
@@ -1459,7 +1552,7 @@
         <v>309041.2</v>
       </c>
       <c r="J7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K7">
         <v>17</v>
@@ -1500,8 +1593,23 @@
       <c r="W7">
         <v>-1.09</v>
       </c>
+      <c r="X7">
+        <v>2.57</v>
+      </c>
+      <c r="Y7">
+        <v>30.7</v>
+      </c>
+      <c r="Z7">
+        <v>6.75</v>
+      </c>
       <c r="AC7" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1509,22 +1617,25 @@
       <c r="AG7">
         <v>2.454314231872559</v>
       </c>
-      <c r="AH7" t="s">
-        <v>177</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300213</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>1.56</v>
@@ -1542,7 +1653,7 @@
         <v>52271.82</v>
       </c>
       <c r="J8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K8">
         <v>5</v>
@@ -1583,8 +1694,23 @@
       <c r="W8">
         <v>0.59</v>
       </c>
+      <c r="X8">
+        <v>-3.45</v>
+      </c>
+      <c r="Y8">
+        <v>11.18</v>
+      </c>
+      <c r="Z8">
+        <v>0.72</v>
+      </c>
       <c r="AC8" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1592,22 +1718,25 @@
       <c r="AG8">
         <v>4.020712852478027</v>
       </c>
-      <c r="AH8" t="s">
-        <v>177</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300252</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-3.02</v>
@@ -1625,7 +1754,7 @@
         <v>72108.96000000001</v>
       </c>
       <c r="J9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1666,8 +1795,23 @@
       <c r="W9">
         <v>-1.26</v>
       </c>
+      <c r="X9">
+        <v>-1.28</v>
+      </c>
+      <c r="Y9">
+        <v>14.27</v>
+      </c>
+      <c r="Z9">
+        <v>3.33</v>
+      </c>
       <c r="AC9" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>1</v>
@@ -1675,22 +1819,25 @@
       <c r="AG9">
         <v>4.110729217529297</v>
       </c>
-      <c r="AH9" t="s">
-        <v>177</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300290</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>0.35</v>
@@ -1708,7 +1855,7 @@
         <v>48822.17</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1749,8 +1896,23 @@
       <c r="W10">
         <v>-0.08</v>
       </c>
+      <c r="X10">
+        <v>4.03</v>
+      </c>
+      <c r="Y10">
+        <v>25.8</v>
+      </c>
+      <c r="Z10">
+        <v>11.3</v>
+      </c>
       <c r="AC10" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1758,22 +1920,25 @@
       <c r="AG10">
         <v>0.1694446206092834</v>
       </c>
-      <c r="AH10" t="s">
-        <v>177</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300328</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>11.43</v>
@@ -1791,7 +1956,7 @@
         <v>288351.13</v>
       </c>
       <c r="J11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1832,8 +1997,23 @@
       <c r="W11">
         <v>-2.69</v>
       </c>
+      <c r="X11">
+        <v>-5.64</v>
+      </c>
+      <c r="Y11">
+        <v>18.29</v>
+      </c>
+      <c r="Z11">
+        <v>-3.33</v>
+      </c>
       <c r="AC11" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1841,22 +2021,25 @@
       <c r="AG11">
         <v>-4.499119281768799</v>
       </c>
-      <c r="AH11" t="s">
-        <v>177</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300368</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>1.6</v>
@@ -1874,7 +2057,7 @@
         <v>121546.2</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K12">
         <v>9</v>
@@ -1915,8 +2098,23 @@
       <c r="W12">
         <v>0.47</v>
       </c>
+      <c r="X12">
+        <v>-6.01</v>
+      </c>
+      <c r="Y12">
+        <v>17.45</v>
+      </c>
+      <c r="Z12">
+        <v>5.5</v>
+      </c>
       <c r="AC12" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1924,22 +2122,25 @@
       <c r="AG12">
         <v>2.727539777755737</v>
       </c>
-      <c r="AH12" t="s">
-        <v>177</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300404</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>-7.53</v>
@@ -1957,7 +2158,7 @@
         <v>74009</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1998,8 +2199,23 @@
       <c r="W13">
         <v>0.66</v>
       </c>
+      <c r="X13">
+        <v>-3.07</v>
+      </c>
+      <c r="Y13">
+        <v>12.57</v>
+      </c>
+      <c r="Z13">
+        <v>3.37</v>
+      </c>
       <c r="AC13" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2007,22 +2223,25 @@
       <c r="AG13">
         <v>-2.674552202224731</v>
       </c>
-      <c r="AH13" t="s">
-        <v>177</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300409</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-1.35</v>
@@ -2040,7 +2259,7 @@
         <v>86955.33</v>
       </c>
       <c r="J14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -2081,8 +2300,23 @@
       <c r="W14">
         <v>0.11</v>
       </c>
+      <c r="X14">
+        <v>-5.06</v>
+      </c>
+      <c r="Y14">
+        <v>22</v>
+      </c>
+      <c r="Z14">
+        <v>3.82</v>
+      </c>
       <c r="AC14" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2090,22 +2324,25 @@
       <c r="AG14">
         <v>6.306477546691895</v>
       </c>
-      <c r="AH14" t="s">
-        <v>177</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300436</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-4.72</v>
@@ -2123,7 +2360,7 @@
         <v>178218.93</v>
       </c>
       <c r="J15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K15">
         <v>35</v>
@@ -2164,8 +2401,23 @@
       <c r="W15">
         <v>-0.8</v>
       </c>
+      <c r="X15">
+        <v>-7.49</v>
+      </c>
+      <c r="Y15">
+        <v>152.99</v>
+      </c>
+      <c r="Z15">
+        <v>-0.2</v>
+      </c>
       <c r="AC15" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2173,22 +2425,25 @@
       <c r="AG15">
         <v>0.7327107191085815</v>
       </c>
-      <c r="AH15" t="s">
-        <v>177</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300499</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>-3.21</v>
@@ -2206,7 +2461,7 @@
         <v>150704.04</v>
       </c>
       <c r="J16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K16">
         <v>6</v>
@@ -2247,8 +2502,23 @@
       <c r="W16">
         <v>-0.18</v>
       </c>
+      <c r="X16">
+        <v>-0.15</v>
+      </c>
+      <c r="Y16">
+        <v>33</v>
+      </c>
+      <c r="Z16">
+        <v>3.32</v>
+      </c>
       <c r="AC16" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2256,22 +2526,25 @@
       <c r="AG16">
         <v>-0.6036213636398315</v>
       </c>
-      <c r="AH16" t="s">
-        <v>177</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300539</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-8.59</v>
@@ -2289,7 +2562,7 @@
         <v>54303.55</v>
       </c>
       <c r="J17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K17">
         <v>10</v>
@@ -2330,8 +2603,23 @@
       <c r="W17">
         <v>-0.54</v>
       </c>
+      <c r="X17">
+        <v>-3.79</v>
+      </c>
+      <c r="Y17">
+        <v>33.92</v>
+      </c>
+      <c r="Z17">
+        <v>4.53</v>
+      </c>
       <c r="AC17" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2339,22 +2627,25 @@
       <c r="AG17">
         <v>1.019526124000549</v>
       </c>
-      <c r="AH17" t="s">
-        <v>177</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300547</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-5.71</v>
@@ -2372,7 +2663,7 @@
         <v>150271.48</v>
       </c>
       <c r="J18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K18">
         <v>4</v>
@@ -2413,8 +2704,23 @@
       <c r="W18">
         <v>-0.68</v>
       </c>
+      <c r="X18">
+        <v>-4.93</v>
+      </c>
+      <c r="Y18">
+        <v>52.5</v>
+      </c>
+      <c r="Z18">
+        <v>3.24</v>
+      </c>
       <c r="AC18" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2422,22 +2728,25 @@
       <c r="AG18">
         <v>1.927999377250671</v>
       </c>
-      <c r="AH18" t="s">
-        <v>177</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300593</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-2.86</v>
@@ -2455,7 +2764,7 @@
         <v>38332.49</v>
       </c>
       <c r="J19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K19">
         <v>9</v>
@@ -2496,8 +2805,23 @@
       <c r="W19">
         <v>0.34</v>
       </c>
+      <c r="X19">
+        <v>-3.9</v>
+      </c>
+      <c r="Y19">
+        <v>20.17</v>
+      </c>
+      <c r="Z19">
+        <v>2.39</v>
+      </c>
       <c r="AC19" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2505,22 +2829,25 @@
       <c r="AG19">
         <v>15.03861713409424</v>
       </c>
-      <c r="AH19" t="s">
-        <v>177</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300602</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-4.23</v>
@@ -2538,7 +2865,7 @@
         <v>120061.22</v>
       </c>
       <c r="J20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -2579,8 +2906,23 @@
       <c r="W20">
         <v>-0.6</v>
       </c>
+      <c r="X20">
+        <v>-2.64</v>
+      </c>
+      <c r="Y20">
+        <v>36.27</v>
+      </c>
+      <c r="Z20">
+        <v>7.47</v>
+      </c>
       <c r="AC20" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2588,22 +2930,25 @@
       <c r="AG20">
         <v>3.728395700454712</v>
       </c>
-      <c r="AH20" t="s">
-        <v>177</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300609</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-8.51</v>
@@ -2621,7 +2966,7 @@
         <v>62757.09</v>
       </c>
       <c r="J21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K21">
         <v>16</v>
@@ -2662,8 +3007,23 @@
       <c r="W21">
         <v>-1.27</v>
       </c>
+      <c r="X21">
+        <v>-2.87</v>
+      </c>
+      <c r="Y21">
+        <v>55.07</v>
+      </c>
+      <c r="Z21">
+        <v>2.08</v>
+      </c>
       <c r="AC21" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2671,22 +3031,25 @@
       <c r="AG21">
         <v>1.137607932090759</v>
       </c>
-      <c r="AH21" t="s">
-        <v>177</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300620</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-7.73</v>
@@ -2704,7 +3067,7 @@
         <v>218510.95</v>
       </c>
       <c r="J22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K22">
         <v>7</v>
@@ -2745,8 +3108,23 @@
       <c r="W22">
         <v>-1</v>
       </c>
+      <c r="X22">
+        <v>-6.13</v>
+      </c>
+      <c r="Y22">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="Z22">
+        <v>2.72</v>
+      </c>
       <c r="AC22" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2754,22 +3132,25 @@
       <c r="AG22">
         <v>2.275278568267822</v>
       </c>
-      <c r="AH22" t="s">
-        <v>177</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300631</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-3.15</v>
@@ -2787,7 +3168,7 @@
         <v>73291.07000000001</v>
       </c>
       <c r="J23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -2828,8 +3209,23 @@
       <c r="W23">
         <v>-2.1</v>
       </c>
+      <c r="X23">
+        <v>-2.82</v>
+      </c>
+      <c r="Y23">
+        <v>36.3</v>
+      </c>
+      <c r="Z23">
+        <v>1.65</v>
+      </c>
       <c r="AC23" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2837,22 +3233,25 @@
       <c r="AG23">
         <v>0.4673203825950623</v>
       </c>
-      <c r="AH23" t="s">
-        <v>177</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300637</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>0.25</v>
@@ -2870,7 +3269,7 @@
         <v>29091.08</v>
       </c>
       <c r="J24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K24">
         <v>6</v>
@@ -2911,8 +3310,23 @@
       <c r="W24">
         <v>-0.65</v>
       </c>
+      <c r="X24">
+        <v>2.75</v>
+      </c>
+      <c r="Y24">
+        <v>16.5</v>
+      </c>
+      <c r="Z24">
+        <v>4.7</v>
+      </c>
       <c r="AC24" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2920,22 +3334,25 @@
       <c r="AG24">
         <v>0.1257463842630386</v>
       </c>
-      <c r="AH24" t="s">
-        <v>177</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300642</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>7.71</v>
@@ -2953,7 +3370,7 @@
         <v>67319.14</v>
       </c>
       <c r="J25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -2994,8 +3411,23 @@
       <c r="W25">
         <v>0.33</v>
       </c>
+      <c r="X25">
+        <v>-2.78</v>
+      </c>
+      <c r="Y25">
+        <v>25</v>
+      </c>
+      <c r="Z25">
+        <v>0.52</v>
+      </c>
       <c r="AC25" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3003,22 +3435,25 @@
       <c r="AG25">
         <v>2.708362340927124</v>
       </c>
-      <c r="AH25" t="s">
-        <v>177</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300684</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-0.36</v>
@@ -3036,7 +3471,7 @@
         <v>92116.25999999999</v>
       </c>
       <c r="J26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K26">
         <v>16</v>
@@ -3077,8 +3512,23 @@
       <c r="W26">
         <v>0.14</v>
       </c>
+      <c r="X26">
+        <v>-7.31</v>
+      </c>
+      <c r="Y26">
+        <v>38.54</v>
+      </c>
+      <c r="Z26">
+        <v>7</v>
+      </c>
       <c r="AC26" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3086,22 +3536,25 @@
       <c r="AG26">
         <v>-6.748863697052002</v>
       </c>
-      <c r="AH26" t="s">
-        <v>177</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300690</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-3.62</v>
@@ -3119,7 +3572,7 @@
         <v>55846.29</v>
       </c>
       <c r="J27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K27">
         <v>8</v>
@@ -3160,8 +3613,23 @@
       <c r="W27">
         <v>-1.27</v>
       </c>
+      <c r="X27">
+        <v>-4.48</v>
+      </c>
+      <c r="Y27">
+        <v>38.76</v>
+      </c>
+      <c r="Z27">
+        <v>1.92</v>
+      </c>
       <c r="AC27" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3169,22 +3637,25 @@
       <c r="AG27">
         <v>0.1233132481575012</v>
       </c>
-      <c r="AH27" t="s">
-        <v>177</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300703</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>6.01</v>
@@ -3202,7 +3673,7 @@
         <v>56610.04</v>
       </c>
       <c r="J28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K28">
         <v>9</v>
@@ -3243,8 +3714,23 @@
       <c r="W28">
         <v>1.35</v>
       </c>
+      <c r="X28">
+        <v>-5.67</v>
+      </c>
+      <c r="Y28">
+        <v>38.53</v>
+      </c>
+      <c r="Z28">
+        <v>3.1</v>
+      </c>
       <c r="AC28" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3252,22 +3738,25 @@
       <c r="AG28">
         <v>4.419310092926025</v>
       </c>
-      <c r="AH28" t="s">
-        <v>177</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300709</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>1.96</v>
@@ -3285,7 +3774,7 @@
         <v>64018.24</v>
       </c>
       <c r="J29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -3326,8 +3815,23 @@
       <c r="W29">
         <v>0.79</v>
       </c>
+      <c r="X29">
+        <v>-4.23</v>
+      </c>
+      <c r="Y29">
+        <v>52.78</v>
+      </c>
+      <c r="Z29">
+        <v>2.59</v>
+      </c>
       <c r="AC29" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3335,22 +3839,25 @@
       <c r="AG29">
         <v>4.487090110778809</v>
       </c>
-      <c r="AH29" t="s">
-        <v>177</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300724</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>0.7</v>
@@ -3368,7 +3875,7 @@
         <v>157239.31</v>
       </c>
       <c r="J30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3409,8 +3916,23 @@
       <c r="W30">
         <v>-0.08</v>
       </c>
+      <c r="X30">
+        <v>-1.43</v>
+      </c>
+      <c r="Y30">
+        <v>78.97</v>
+      </c>
+      <c r="Z30">
+        <v>5.29</v>
+      </c>
       <c r="AC30" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3418,22 +3940,25 @@
       <c r="AG30">
         <v>81.77792358398438</v>
       </c>
-      <c r="AH30" t="s">
-        <v>177</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300727</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>-4.41</v>
@@ -3451,7 +3976,7 @@
         <v>45466.4</v>
       </c>
       <c r="J31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K31">
         <v>4</v>
@@ -3492,8 +4017,23 @@
       <c r="W31">
         <v>0.08</v>
       </c>
+      <c r="X31">
+        <v>-3.91</v>
+      </c>
+      <c r="Y31">
+        <v>40.38</v>
+      </c>
+      <c r="Z31">
+        <v>2.33</v>
+      </c>
       <c r="AC31" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3501,22 +4041,25 @@
       <c r="AG31">
         <v>3.496855735778809</v>
       </c>
-      <c r="AH31" t="s">
-        <v>177</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300730</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-8.199999999999999</v>
@@ -3534,7 +4077,7 @@
         <v>77034.09</v>
       </c>
       <c r="J32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -3575,8 +4118,23 @@
       <c r="W32">
         <v>-3.03</v>
       </c>
+      <c r="X32">
+        <v>13.17</v>
+      </c>
+      <c r="Y32">
+        <v>22.96</v>
+      </c>
+      <c r="Z32">
+        <v>24.31</v>
+      </c>
       <c r="AC32" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3584,22 +4142,25 @@
       <c r="AG32">
         <v>1.306541919708252</v>
       </c>
-      <c r="AH32" t="s">
-        <v>177</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300752</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>9.390000000000001</v>
@@ -3617,7 +4178,7 @@
         <v>71756.00999999999</v>
       </c>
       <c r="J33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -3658,8 +4219,23 @@
       <c r="W33">
         <v>2.2</v>
       </c>
+      <c r="X33">
+        <v>-1.73</v>
+      </c>
+      <c r="Y33">
+        <v>26.87</v>
+      </c>
+      <c r="Z33">
+        <v>2.48</v>
+      </c>
       <c r="AC33" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3667,22 +4243,25 @@
       <c r="AG33">
         <v>4.202663898468018</v>
       </c>
-      <c r="AH33" t="s">
-        <v>177</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300767</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-0.66</v>
@@ -3700,7 +4279,7 @@
         <v>70003.05</v>
       </c>
       <c r="J34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3741,8 +4320,23 @@
       <c r="W34">
         <v>-0.85</v>
       </c>
+      <c r="X34">
+        <v>-0.05</v>
+      </c>
+      <c r="Y34">
+        <v>21.6</v>
+      </c>
+      <c r="Z34">
+        <v>2.08</v>
+      </c>
       <c r="AC34" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3750,22 +4344,25 @@
       <c r="AG34">
         <v>3.312932252883911</v>
       </c>
-      <c r="AH34" t="s">
-        <v>177</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300803</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>-2.69</v>
@@ -3783,7 +4380,7 @@
         <v>494456.52</v>
       </c>
       <c r="J35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K35">
         <v>7</v>
@@ -3824,8 +4421,23 @@
       <c r="W35">
         <v>-0.98</v>
       </c>
+      <c r="X35">
+        <v>3.19</v>
+      </c>
+      <c r="Y35">
+        <v>132.81</v>
+      </c>
+      <c r="Z35">
+        <v>7.85</v>
+      </c>
       <c r="AC35" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3833,22 +4445,25 @@
       <c r="AG35">
         <v>2.700766086578369</v>
       </c>
-      <c r="AH35" t="s">
-        <v>177</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300806</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>3.91</v>
@@ -3866,7 +4481,7 @@
         <v>52868.15</v>
       </c>
       <c r="J36" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K36">
         <v>4</v>
@@ -3907,8 +4522,23 @@
       <c r="W36">
         <v>0.92</v>
       </c>
+      <c r="X36">
+        <v>-4.17</v>
+      </c>
+      <c r="Y36">
+        <v>25.97</v>
+      </c>
+      <c r="Z36">
+        <v>7.27</v>
+      </c>
       <c r="AC36" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3916,22 +4546,25 @@
       <c r="AG36">
         <v>5.592298984527588</v>
       </c>
-      <c r="AH36" t="s">
-        <v>177</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300810</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-13.12</v>
@@ -3949,7 +4582,7 @@
         <v>117810.12</v>
       </c>
       <c r="J37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -3990,8 +4623,23 @@
       <c r="W37">
         <v>-0.91</v>
       </c>
+      <c r="X37">
+        <v>-5.68</v>
+      </c>
+      <c r="Y37">
+        <v>57.44</v>
+      </c>
+      <c r="Z37">
+        <v>0.98</v>
+      </c>
       <c r="AC37" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3999,22 +4647,25 @@
       <c r="AG37">
         <v>2.75860333442688</v>
       </c>
-      <c r="AH37" t="s">
-        <v>177</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300811</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>-3.78</v>
@@ -4032,7 +4683,7 @@
         <v>50206.12</v>
       </c>
       <c r="J38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K38">
         <v>3</v>
@@ -4073,8 +4724,23 @@
       <c r="W38">
         <v>-0.26</v>
       </c>
+      <c r="X38">
+        <v>-4.53</v>
+      </c>
+      <c r="Y38">
+        <v>73.33</v>
+      </c>
+      <c r="Z38">
+        <v>2.59</v>
+      </c>
       <c r="AC38" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>1</v>
@@ -4082,22 +4748,25 @@
       <c r="AG38">
         <v>3.327975273132324</v>
       </c>
-      <c r="AH38" t="s">
-        <v>177</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300814</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-5.89</v>
@@ -4115,7 +4784,7 @@
         <v>47842.19</v>
       </c>
       <c r="J39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K39">
         <v>3</v>
@@ -4156,8 +4825,23 @@
       <c r="W39">
         <v>-0.22</v>
       </c>
+      <c r="X39">
+        <v>-4.91</v>
+      </c>
+      <c r="Y39">
+        <v>47.28</v>
+      </c>
+      <c r="Z39">
+        <v>2.32</v>
+      </c>
       <c r="AC39" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>1</v>
@@ -4165,22 +4849,25 @@
       <c r="AG39">
         <v>-33.56634521484375</v>
       </c>
-      <c r="AH39" t="s">
-        <v>177</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300843</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-6.09</v>
@@ -4198,7 +4885,7 @@
         <v>45733.72</v>
       </c>
       <c r="J40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K40">
         <v>4</v>
@@ -4239,8 +4926,23 @@
       <c r="W40">
         <v>-0.73</v>
       </c>
+      <c r="X40">
+        <v>4.52</v>
+      </c>
+      <c r="Y40">
+        <v>50.66</v>
+      </c>
+      <c r="Z40">
+        <v>9.42</v>
+      </c>
       <c r="AC40" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4248,22 +4950,25 @@
       <c r="AG40">
         <v>7.368255138397217</v>
       </c>
-      <c r="AH40" t="s">
-        <v>177</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300870</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-6.85</v>
@@ -4281,7 +4986,7 @@
         <v>120301.32</v>
       </c>
       <c r="J41" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K41">
         <v>6</v>
@@ -4322,8 +5027,23 @@
       <c r="W41">
         <v>-0.11</v>
       </c>
+      <c r="X41">
+        <v>2</v>
+      </c>
+      <c r="Y41">
+        <v>257.75</v>
+      </c>
+      <c r="Z41">
+        <v>7.35</v>
+      </c>
       <c r="AC41" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4331,22 +5051,25 @@
       <c r="AG41">
         <v>2.719851970672607</v>
       </c>
-      <c r="AH41" t="s">
-        <v>177</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300902</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>2.32</v>
@@ -4364,7 +5087,7 @@
         <v>33253.03</v>
       </c>
       <c r="J42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K42">
         <v>6</v>
@@ -4405,8 +5128,23 @@
       <c r="W42">
         <v>-0.15</v>
       </c>
+      <c r="X42">
+        <v>-1.48</v>
+      </c>
+      <c r="Y42">
+        <v>32.44</v>
+      </c>
+      <c r="Z42">
+        <v>1.95</v>
+      </c>
       <c r="AC42" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4414,22 +5152,25 @@
       <c r="AG42">
         <v>-1.332196474075317</v>
       </c>
-      <c r="AH42" t="s">
-        <v>177</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>300907</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>-5.67</v>
@@ -4447,7 +5188,7 @@
         <v>22337.91</v>
       </c>
       <c r="J43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K43">
         <v>4</v>
@@ -4488,8 +5229,23 @@
       <c r="W43">
         <v>0.34</v>
       </c>
+      <c r="X43">
+        <v>-6.9</v>
+      </c>
+      <c r="Y43">
+        <v>40.18</v>
+      </c>
+      <c r="Z43">
+        <v>-0.67</v>
+      </c>
       <c r="AC43" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4497,22 +5253,25 @@
       <c r="AG43">
         <v>1.008584260940552</v>
       </c>
-      <c r="AH43" t="s">
-        <v>177</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>300913</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-4.78</v>
@@ -4530,7 +5289,7 @@
         <v>85255.86</v>
       </c>
       <c r="J44" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -4571,8 +5330,23 @@
       <c r="W44">
         <v>-0.33</v>
       </c>
+      <c r="X44">
+        <v>-0.23</v>
+      </c>
+      <c r="Y44">
+        <v>59.3</v>
+      </c>
+      <c r="Z44">
+        <v>4.14</v>
+      </c>
       <c r="AC44" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4580,22 +5354,25 @@
       <c r="AG44">
         <v>-8.70714282989502</v>
       </c>
-      <c r="AH44" t="s">
-        <v>177</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>300951</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-1.76</v>
@@ -4613,7 +5390,7 @@
         <v>18480.78</v>
       </c>
       <c r="J45" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K45">
         <v>3</v>
@@ -4654,8 +5431,23 @@
       <c r="W45">
         <v>-0.2</v>
       </c>
+      <c r="X45">
+        <v>-2.46</v>
+      </c>
+      <c r="Y45">
+        <v>43.26</v>
+      </c>
+      <c r="Z45">
+        <v>10.44</v>
+      </c>
       <c r="AC45" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4663,22 +5455,25 @@
       <c r="AG45">
         <v>35.33385848999023</v>
       </c>
-      <c r="AH45" t="s">
-        <v>177</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>300990</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>-3.54</v>
@@ -4696,7 +5491,7 @@
         <v>26276.96</v>
       </c>
       <c r="J46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -4737,8 +5532,23 @@
       <c r="W46">
         <v>0.02</v>
       </c>
+      <c r="X46">
+        <v>-10.48</v>
+      </c>
+      <c r="Y46">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="Z46">
+        <v>3.09</v>
+      </c>
       <c r="AC46" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4746,22 +5556,25 @@
       <c r="AG46">
         <v>5.84939432144165</v>
       </c>
-      <c r="AH46" t="s">
-        <v>177</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>300995</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>-1.45</v>
@@ -4779,7 +5592,7 @@
         <v>41892.76</v>
       </c>
       <c r="J47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -4820,8 +5633,23 @@
       <c r="W47">
         <v>-1.1</v>
       </c>
+      <c r="X47">
+        <v>-3.64</v>
+      </c>
+      <c r="Y47">
+        <v>65.8</v>
+      </c>
+      <c r="Z47">
+        <v>4.15</v>
+      </c>
       <c r="AC47" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4829,22 +5657,25 @@
       <c r="AG47">
         <v>7.738988876342773</v>
       </c>
-      <c r="AH47" t="s">
-        <v>177</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>301007</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>3.41</v>
@@ -4862,7 +5693,7 @@
         <v>52750.92</v>
       </c>
       <c r="J48" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K48">
         <v>6</v>
@@ -4903,8 +5734,23 @@
       <c r="W48">
         <v>0.17</v>
       </c>
+      <c r="X48">
+        <v>-2.59</v>
+      </c>
+      <c r="Y48">
+        <v>48.02</v>
+      </c>
+      <c r="Z48">
+        <v>0.76</v>
+      </c>
       <c r="AC48" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4912,22 +5758,25 @@
       <c r="AG48">
         <v>4.799458503723145</v>
       </c>
-      <c r="AH48" t="s">
-        <v>177</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>301018</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>0.79</v>
@@ -4945,7 +5794,7 @@
         <v>96888.58</v>
       </c>
       <c r="J49" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K49">
         <v>6</v>
@@ -4986,8 +5835,23 @@
       <c r="W49">
         <v>0.27</v>
       </c>
+      <c r="X49">
+        <v>-7.88</v>
+      </c>
+      <c r="Y49">
+        <v>69.38</v>
+      </c>
+      <c r="Z49">
+        <v>1.06</v>
+      </c>
       <c r="AC49" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -4995,22 +5859,25 @@
       <c r="AG49">
         <v>2.894024848937988</v>
       </c>
-      <c r="AH49" t="s">
-        <v>177</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>301069</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>1.9</v>
@@ -5028,7 +5895,7 @@
         <v>69304.64</v>
       </c>
       <c r="J50" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K50">
         <v>11</v>
@@ -5069,8 +5936,23 @@
       <c r="W50">
         <v>-0.02</v>
       </c>
+      <c r="X50">
+        <v>-4.61</v>
+      </c>
+      <c r="Y50">
+        <v>24.5</v>
+      </c>
+      <c r="Z50">
+        <v>-0.65</v>
+      </c>
       <c r="AC50" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5078,22 +5960,25 @@
       <c r="AG50">
         <v>0.4775526523590088</v>
       </c>
-      <c r="AH50" t="s">
-        <v>177</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>301076</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-2.85</v>
@@ -5111,7 +5996,7 @@
         <v>89147.67999999999</v>
       </c>
       <c r="J51" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K51">
         <v>11</v>
@@ -5152,8 +6037,23 @@
       <c r="W51">
         <v>-0.1</v>
       </c>
+      <c r="X51">
+        <v>-3.14</v>
+      </c>
+      <c r="Y51">
+        <v>56.5</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
       <c r="AC51" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5161,22 +6061,25 @@
       <c r="AG51">
         <v>1.694037437438965</v>
       </c>
-      <c r="AH51" t="s">
-        <v>177</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>301086</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>-0.34</v>
@@ -5194,7 +6097,7 @@
         <v>15745.03</v>
       </c>
       <c r="J52" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K52">
         <v>3</v>
@@ -5235,8 +6138,23 @@
       <c r="W52">
         <v>-0.05</v>
       </c>
+      <c r="X52">
+        <v>-7.8</v>
+      </c>
+      <c r="Y52">
+        <v>71.72</v>
+      </c>
+      <c r="Z52">
+        <v>4.9</v>
+      </c>
       <c r="AC52" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5244,22 +6162,25 @@
       <c r="AG52">
         <v>4.328246593475342</v>
       </c>
-      <c r="AH52" t="s">
-        <v>177</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>301120</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>-5.85</v>
@@ -5277,7 +6198,7 @@
         <v>42801.12</v>
       </c>
       <c r="J53" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K53">
         <v>12</v>
@@ -5318,8 +6239,23 @@
       <c r="W53">
         <v>-1.84</v>
       </c>
+      <c r="X53">
+        <v>-3.14</v>
+      </c>
+      <c r="Y53">
+        <v>16.43</v>
+      </c>
+      <c r="Z53">
+        <v>4.12</v>
+      </c>
       <c r="AC53" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5327,22 +6263,25 @@
       <c r="AG53">
         <v>2.541308641433716</v>
       </c>
-      <c r="AH53" t="s">
-        <v>177</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>301123</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>-6.77</v>
@@ -5360,7 +6299,7 @@
         <v>60314.43</v>
       </c>
       <c r="J54" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K54">
         <v>12</v>
@@ -5401,8 +6340,23 @@
       <c r="W54">
         <v>-0.01</v>
       </c>
+      <c r="X54">
+        <v>-6.96</v>
+      </c>
+      <c r="Y54">
+        <v>46.94</v>
+      </c>
+      <c r="Z54">
+        <v>2.92</v>
+      </c>
       <c r="AC54" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5410,22 +6364,25 @@
       <c r="AG54">
         <v>12.95632648468018</v>
       </c>
-      <c r="AH54" t="s">
-        <v>177</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>301128</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>-2.25</v>
@@ -5443,7 +6400,7 @@
         <v>82524.78999999999</v>
       </c>
       <c r="J55" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K55">
         <v>6</v>
@@ -5484,8 +6441,23 @@
       <c r="W55">
         <v>-0.02</v>
       </c>
+      <c r="X55">
+        <v>-3.81</v>
+      </c>
+      <c r="Y55">
+        <v>105.55</v>
+      </c>
+      <c r="Z55">
+        <v>10.2</v>
+      </c>
       <c r="AC55" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>1</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5493,22 +6465,25 @@
       <c r="AG55">
         <v>21.32833480834961</v>
       </c>
-      <c r="AH55" t="s">
-        <v>177</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>301151</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>-2.74</v>
@@ -5526,7 +6501,7 @@
         <v>27881.4</v>
       </c>
       <c r="J56" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -5567,8 +6542,23 @@
       <c r="W56">
         <v>-1.94</v>
       </c>
+      <c r="X56">
+        <v>-3.1</v>
+      </c>
+      <c r="Y56">
+        <v>25.55</v>
+      </c>
+      <c r="Z56">
+        <v>1.43</v>
+      </c>
       <c r="AC56" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5576,22 +6566,25 @@
       <c r="AG56">
         <v>3.103036880493164</v>
       </c>
-      <c r="AH56" t="s">
-        <v>177</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>301161</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>-2.88</v>
@@ -5609,7 +6602,7 @@
         <v>23867.09</v>
       </c>
       <c r="J57" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K57">
         <v>13</v>
@@ -5650,8 +6643,23 @@
       <c r="W57">
         <v>-1.05</v>
       </c>
+      <c r="X57">
+        <v>-1.25</v>
+      </c>
+      <c r="Y57">
+        <v>45.88</v>
+      </c>
+      <c r="Z57">
+        <v>2.96</v>
+      </c>
       <c r="AC57" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5659,22 +6667,25 @@
       <c r="AG57">
         <v>1.336808443069458</v>
       </c>
-      <c r="AH57" t="s">
-        <v>177</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>301165</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>-3.87</v>
@@ -5692,7 +6703,7 @@
         <v>78172.33</v>
       </c>
       <c r="J58" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K58">
         <v>7</v>
@@ -5733,8 +6744,23 @@
       <c r="W58">
         <v>-0.92</v>
       </c>
+      <c r="X58">
+        <v>-2.78</v>
+      </c>
+      <c r="Y58">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="Z58">
+        <v>4.63</v>
+      </c>
       <c r="AC58" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5742,22 +6768,25 @@
       <c r="AG58">
         <v>2.406934499740601</v>
       </c>
-      <c r="AH58" t="s">
-        <v>177</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>301183</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>-5.15</v>
@@ -5775,7 +6804,7 @@
         <v>58456.29</v>
       </c>
       <c r="J59" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K59">
         <v>2</v>
@@ -5816,8 +6845,23 @@
       <c r="W59">
         <v>-0.85</v>
       </c>
+      <c r="X59">
+        <v>-4.77</v>
+      </c>
+      <c r="Y59">
+        <v>79.25</v>
+      </c>
+      <c r="Z59">
+        <v>1.89</v>
+      </c>
       <c r="AC59" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5825,22 +6869,25 @@
       <c r="AG59">
         <v>5.048474311828613</v>
       </c>
-      <c r="AH59" t="s">
-        <v>177</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>301205</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>-4.29</v>
@@ -5858,7 +6905,7 @@
         <v>71179.55</v>
       </c>
       <c r="J60" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -5899,8 +6946,23 @@
       <c r="W60">
         <v>-0.17</v>
       </c>
+      <c r="X60">
+        <v>-2.67</v>
+      </c>
+      <c r="Y60">
+        <v>111</v>
+      </c>
+      <c r="Z60">
+        <v>3.55</v>
+      </c>
       <c r="AC60" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5908,22 +6970,25 @@
       <c r="AG60">
         <v>3.959039926528931</v>
       </c>
-      <c r="AH60" t="s">
-        <v>177</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>301217</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>3.25</v>
@@ -5941,7 +7006,7 @@
         <v>140394.56</v>
       </c>
       <c r="J61" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K61">
         <v>33</v>
@@ -5982,8 +7047,23 @@
       <c r="W61">
         <v>0.09</v>
       </c>
+      <c r="X61">
+        <v>-6.46</v>
+      </c>
+      <c r="Y61">
+        <v>33.42</v>
+      </c>
+      <c r="Z61">
+        <v>0.27</v>
+      </c>
       <c r="AC61" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>1</v>
@@ -5991,22 +7071,25 @@
       <c r="AG61">
         <v>6.208199024200439</v>
       </c>
-      <c r="AH61" t="s">
-        <v>177</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>301226</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>-5.82</v>
@@ -6024,7 +7107,7 @@
         <v>27571.7</v>
       </c>
       <c r="J62" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K62">
         <v>3</v>
@@ -6065,8 +7148,23 @@
       <c r="W62">
         <v>0.08</v>
       </c>
+      <c r="X62">
+        <v>-5.46</v>
+      </c>
+      <c r="Y62">
+        <v>38.99</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
       <c r="AC62" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6074,22 +7172,25 @@
       <c r="AG62">
         <v>13.70629024505615</v>
       </c>
-      <c r="AH62" t="s">
-        <v>177</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>301323</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>-1.21</v>
@@ -6107,7 +7208,7 @@
         <v>19591.67</v>
       </c>
       <c r="J63" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K63">
         <v>7</v>
@@ -6148,8 +7249,23 @@
       <c r="W63">
         <v>-0.2</v>
       </c>
+      <c r="X63">
+        <v>-3.36</v>
+      </c>
+      <c r="Y63">
+        <v>60.5</v>
+      </c>
+      <c r="Z63">
+        <v>2.61</v>
+      </c>
       <c r="AC63" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6157,22 +7273,25 @@
       <c r="AG63">
         <v>7.037387847900391</v>
       </c>
-      <c r="AH63" t="s">
-        <v>177</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>301357</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>0.92</v>
@@ -6190,7 +7309,7 @@
         <v>100048.14</v>
       </c>
       <c r="J64" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K64">
         <v>17</v>
@@ -6231,8 +7350,23 @@
       <c r="W64">
         <v>-0.8</v>
       </c>
+      <c r="X64">
+        <v>-3.63</v>
+      </c>
+      <c r="Y64">
+        <v>175</v>
+      </c>
+      <c r="Z64">
+        <v>0.23</v>
+      </c>
       <c r="AC64" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6240,22 +7374,25 @@
       <c r="AG64">
         <v>3.787733793258667</v>
       </c>
-      <c r="AH64" t="s">
-        <v>177</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>301398</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>1.49</v>
@@ -6273,7 +7410,7 @@
         <v>44109.58</v>
       </c>
       <c r="J65" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K65">
         <v>4</v>
@@ -6314,8 +7451,23 @@
       <c r="W65">
         <v>0.13</v>
       </c>
+      <c r="X65">
+        <v>-8.43</v>
+      </c>
+      <c r="Y65">
+        <v>54.7</v>
+      </c>
+      <c r="Z65">
+        <v>-0.92</v>
+      </c>
       <c r="AC65" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6323,22 +7475,25 @@
       <c r="AG65">
         <v>3.98447585105896</v>
       </c>
-      <c r="AH65" t="s">
-        <v>177</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>301489</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>-5.32</v>
@@ -6356,7 +7511,7 @@
         <v>102058.96</v>
       </c>
       <c r="J66" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K66">
         <v>15</v>
@@ -6397,8 +7552,23 @@
       <c r="W66">
         <v>-0.58</v>
       </c>
+      <c r="X66">
+        <v>-3.85</v>
+      </c>
+      <c r="Y66">
+        <v>176.99</v>
+      </c>
+      <c r="Z66">
+        <v>2.9</v>
+      </c>
       <c r="AC66" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6406,22 +7576,25 @@
       <c r="AG66">
         <v>3.62833046913147</v>
       </c>
-      <c r="AH66" t="s">
-        <v>177</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>301525</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>-6.8</v>
@@ -6439,7 +7612,7 @@
         <v>27836.81</v>
       </c>
       <c r="J67" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K67">
         <v>2</v>
@@ -6480,8 +7653,23 @@
       <c r="W67">
         <v>-0.04</v>
       </c>
+      <c r="X67">
+        <v>-6.23</v>
+      </c>
+      <c r="Y67">
+        <v>100.59</v>
+      </c>
+      <c r="Z67">
+        <v>1.31</v>
+      </c>
       <c r="AC67" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6489,22 +7677,25 @@
       <c r="AG67">
         <v>7.602761268615723</v>
       </c>
-      <c r="AH67" t="s">
-        <v>177</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>301526</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>-1.67</v>
@@ -6522,7 +7713,7 @@
         <v>72715.88</v>
       </c>
       <c r="J68" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K68">
         <v>10</v>
@@ -6563,8 +7754,23 @@
       <c r="W68">
         <v>-0.18</v>
       </c>
+      <c r="X68">
+        <v>-2.96</v>
+      </c>
+      <c r="Y68">
+        <v>6.45</v>
+      </c>
+      <c r="Z68">
+        <v>-0.15</v>
+      </c>
       <c r="AC68" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6572,22 +7778,25 @@
       <c r="AG68">
         <v>2.590869665145874</v>
       </c>
-      <c r="AH68" t="s">
-        <v>177</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>301626</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>9.710000000000001</v>
@@ -6605,7 +7814,7 @@
         <v>59646.64</v>
       </c>
       <c r="J69" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K69">
         <v>4</v>
@@ -6646,8 +7855,23 @@
       <c r="W69">
         <v>0.87</v>
       </c>
+      <c r="X69">
+        <v>1.31</v>
+      </c>
+      <c r="Y69">
+        <v>173.9</v>
+      </c>
+      <c r="Z69">
+        <v>0.82</v>
+      </c>
       <c r="AC69" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6655,22 +7879,25 @@
       <c r="AG69">
         <v>2.647266387939453</v>
       </c>
-      <c r="AH69" t="s">
-        <v>177</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>688035</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>2.7</v>
@@ -6688,7 +7915,7 @@
         <v>57932.82</v>
       </c>
       <c r="J70" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K70">
         <v>3</v>
@@ -6729,8 +7956,23 @@
       <c r="W70">
         <v>0.38</v>
       </c>
+      <c r="X70">
+        <v>-8.710000000000001</v>
+      </c>
+      <c r="Y70">
+        <v>63.62</v>
+      </c>
+      <c r="Z70">
+        <v>2.12</v>
+      </c>
       <c r="AC70" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6738,22 +7980,25 @@
       <c r="AG70">
         <v>5.195277690887451</v>
       </c>
-      <c r="AH70" t="s">
-        <v>177</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>688098</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>-2.66</v>
@@ -6771,7 +8016,7 @@
         <v>101184.41</v>
       </c>
       <c r="J71" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K71">
         <v>1</v>
@@ -6812,8 +8057,23 @@
       <c r="W71">
         <v>-1.59</v>
       </c>
+      <c r="X71">
+        <v>-11.86</v>
+      </c>
+      <c r="Y71">
+        <v>14.93</v>
+      </c>
+      <c r="Z71">
+        <v>-0.4</v>
+      </c>
       <c r="AC71" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6821,22 +8081,25 @@
       <c r="AG71">
         <v>0.7522866725921631</v>
       </c>
-      <c r="AH71" t="s">
-        <v>177</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>688108</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>-2.52</v>
@@ -6854,7 +8117,7 @@
         <v>154296.18</v>
       </c>
       <c r="J72" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K72">
         <v>8</v>
@@ -6895,8 +8158,23 @@
       <c r="W72">
         <v>-0.24</v>
       </c>
+      <c r="X72">
+        <v>-8.210000000000001</v>
+      </c>
+      <c r="Y72">
+        <v>37.95</v>
+      </c>
+      <c r="Z72">
+        <v>-3.68</v>
+      </c>
       <c r="AC72" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6904,22 +8182,25 @@
       <c r="AG72">
         <v>12.58365821838379</v>
       </c>
-      <c r="AH72" t="s">
-        <v>177</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>688110</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>-5.97</v>
@@ -6937,7 +8218,7 @@
         <v>235205.99</v>
       </c>
       <c r="J73" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K73">
         <v>17</v>
@@ -6978,8 +8259,23 @@
       <c r="W73">
         <v>-0.73</v>
       </c>
+      <c r="X73">
+        <v>-12.37</v>
+      </c>
+      <c r="Y73">
+        <v>101.38</v>
+      </c>
+      <c r="Z73">
+        <v>5.59</v>
+      </c>
       <c r="AC73" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -6987,22 +8283,25 @@
       <c r="AG73">
         <v>1.392064809799194</v>
       </c>
-      <c r="AH73" t="s">
-        <v>177</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>688167</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>4.86</v>
@@ -7020,7 +8319,7 @@
         <v>91188.53</v>
       </c>
       <c r="J74" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K74">
         <v>11</v>
@@ -7061,8 +8360,23 @@
       <c r="W74">
         <v>0.06</v>
       </c>
+      <c r="X74">
+        <v>-1.58</v>
+      </c>
+      <c r="Y74">
+        <v>130</v>
+      </c>
+      <c r="Z74">
+        <v>4.21</v>
+      </c>
       <c r="AC74" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7070,22 +8384,25 @@
       <c r="AG74">
         <v>3.160109281539917</v>
       </c>
-      <c r="AH74" t="s">
-        <v>177</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>688195</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>-1.63</v>
@@ -7103,7 +8420,7 @@
         <v>79491.82000000001</v>
       </c>
       <c r="J75" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K75">
         <v>3</v>
@@ -7144,8 +8461,23 @@
       <c r="W75">
         <v>-0.2</v>
       </c>
+      <c r="X75">
+        <v>-8.15</v>
+      </c>
+      <c r="Y75">
+        <v>67.73</v>
+      </c>
+      <c r="Z75">
+        <v>2.11</v>
+      </c>
       <c r="AC75" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7153,22 +8485,25 @@
       <c r="AG75">
         <v>78.51108551025391</v>
       </c>
-      <c r="AH75" t="s">
-        <v>177</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>688199</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>-0.14</v>
@@ -7186,7 +8521,7 @@
         <v>19542.01</v>
       </c>
       <c r="J76" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K76">
         <v>6</v>
@@ -7227,8 +8562,23 @@
       <c r="W76">
         <v>0.57</v>
       </c>
+      <c r="X76">
+        <v>-3.59</v>
+      </c>
+      <c r="Y76">
+        <v>29.5</v>
+      </c>
+      <c r="Z76">
+        <v>1.48</v>
+      </c>
       <c r="AC76" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7236,22 +8586,25 @@
       <c r="AG76">
         <v>3.677193641662598</v>
       </c>
-      <c r="AH76" t="s">
-        <v>177</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>688270</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>-4.1</v>
@@ -7269,7 +8622,7 @@
         <v>78013.11</v>
       </c>
       <c r="J77" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K77">
         <v>6</v>
@@ -7310,8 +8663,23 @@
       <c r="W77">
         <v>-0.4</v>
       </c>
+      <c r="X77">
+        <v>-4.95</v>
+      </c>
+      <c r="Y77">
+        <v>70.77</v>
+      </c>
+      <c r="Z77">
+        <v>1.22</v>
+      </c>
       <c r="AC77" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -7319,22 +8687,25 @@
       <c r="AG77">
         <v>14.60213279724121</v>
       </c>
-      <c r="AH77" t="s">
-        <v>177</v>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>688379</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>-0.71</v>
@@ -7352,7 +8723,7 @@
         <v>23350.72</v>
       </c>
       <c r="J78" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K78">
         <v>9</v>
@@ -7393,8 +8764,23 @@
       <c r="W78">
         <v>0</v>
       </c>
+      <c r="X78">
+        <v>-10.68</v>
+      </c>
+      <c r="Y78">
+        <v>72.3</v>
+      </c>
+      <c r="Z78">
+        <v>9.550000000000001</v>
+      </c>
       <c r="AC78" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>1</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -7402,22 +8788,25 @@
       <c r="AG78">
         <v>8.511488914489746</v>
       </c>
-      <c r="AH78" t="s">
-        <v>177</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>688381</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>-7.26</v>
@@ -7435,7 +8824,7 @@
         <v>55521.32</v>
       </c>
       <c r="J79" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K79">
         <v>2</v>
@@ -7476,8 +8865,23 @@
       <c r="W79">
         <v>-1.3</v>
       </c>
+      <c r="X79">
+        <v>-3.55</v>
+      </c>
+      <c r="Y79">
+        <v>29.25</v>
+      </c>
+      <c r="Z79">
+        <v>5.98</v>
+      </c>
       <c r="AC79" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -7485,22 +8889,25 @@
       <c r="AG79">
         <v>1.268805861473083</v>
       </c>
-      <c r="AH79" t="s">
-        <v>177</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>688448</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>-8.140000000000001</v>
@@ -7518,7 +8925,7 @@
         <v>22453.1</v>
       </c>
       <c r="J80" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K80">
         <v>6</v>
@@ -7559,8 +8966,23 @@
       <c r="W80">
         <v>-0.9399999999999999</v>
       </c>
+      <c r="X80">
+        <v>-6.05</v>
+      </c>
+      <c r="Y80">
+        <v>63</v>
+      </c>
+      <c r="Z80">
+        <v>5.26</v>
+      </c>
       <c r="AC80" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
       </c>
       <c r="AF80">
         <v>0</v>
@@ -7568,22 +8990,25 @@
       <c r="AG80">
         <v>0.5966723561286926</v>
       </c>
-      <c r="AH80" t="s">
-        <v>177</v>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>688499</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>2.72</v>
@@ -7601,7 +9026,7 @@
         <v>53907.28</v>
       </c>
       <c r="J81" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K81">
         <v>47</v>
@@ -7642,8 +9067,23 @@
       <c r="W81">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X81">
+        <v>-7.44</v>
+      </c>
+      <c r="Y81">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="Z81">
+        <v>2.32</v>
+      </c>
       <c r="AC81" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -7651,22 +9091,25 @@
       <c r="AG81">
         <v>7.122420310974121</v>
       </c>
-      <c r="AH81" t="s">
-        <v>177</v>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>688502</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>5.06</v>
@@ -7684,7 +9127,7 @@
         <v>40876.96</v>
       </c>
       <c r="J82" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K82">
         <v>18</v>
@@ -7725,8 +9168,23 @@
       <c r="W82">
         <v>0.88</v>
       </c>
+      <c r="X82">
+        <v>-1.98</v>
+      </c>
+      <c r="Y82">
+        <v>423.7</v>
+      </c>
+      <c r="Z82">
+        <v>6.9</v>
+      </c>
       <c r="AC82" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
       </c>
       <c r="AF82">
         <v>0</v>
@@ -7734,22 +9192,25 @@
       <c r="AG82">
         <v>-0.7069594860076904</v>
       </c>
-      <c r="AH82" t="s">
-        <v>177</v>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>688556</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>-1.77</v>
@@ -7767,7 +9228,7 @@
         <v>59357.76</v>
       </c>
       <c r="J83" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K83">
         <v>18</v>
@@ -7808,8 +9269,23 @@
       <c r="W83">
         <v>0.3</v>
       </c>
+      <c r="X83">
+        <v>-4.21</v>
+      </c>
+      <c r="Y83">
+        <v>12.99</v>
+      </c>
+      <c r="Z83">
+        <v>1.48</v>
+      </c>
       <c r="AC83" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
       </c>
       <c r="AF83">
         <v>0</v>
@@ -7817,22 +9293,25 @@
       <c r="AG83">
         <v>4.47690486907959</v>
       </c>
-      <c r="AH83" t="s">
-        <v>177</v>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>688584</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84">
         <v>2.58</v>
@@ -7850,7 +9329,7 @@
         <v>31562.48</v>
       </c>
       <c r="J84" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K84">
         <v>6</v>
@@ -7891,8 +9370,23 @@
       <c r="W84">
         <v>0.22</v>
       </c>
+      <c r="X84">
+        <v>-3.39</v>
+      </c>
+      <c r="Y84">
+        <v>29.65</v>
+      </c>
+      <c r="Z84">
+        <v>14.66</v>
+      </c>
       <c r="AC84" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>1</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -7900,22 +9394,25 @@
       <c r="AG84">
         <v>4.269811153411865</v>
       </c>
-      <c r="AH84" t="s">
-        <v>177</v>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C85">
         <v>688603</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E85">
         <v>-5.24</v>
@@ -7933,7 +9430,7 @@
         <v>33562.88</v>
       </c>
       <c r="J85" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K85">
         <v>6</v>
@@ -7974,8 +9471,23 @@
       <c r="W85">
         <v>-1.11</v>
       </c>
+      <c r="X85">
+        <v>-7.07</v>
+      </c>
+      <c r="Y85">
+        <v>99.88</v>
+      </c>
+      <c r="Z85">
+        <v>12</v>
+      </c>
       <c r="AC85" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>1</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -7983,22 +9495,25 @@
       <c r="AG85">
         <v>3.216076612472534</v>
       </c>
-      <c r="AH85" t="s">
-        <v>177</v>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C86">
         <v>688648</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86">
         <v>-6.88</v>
@@ -8016,7 +9531,7 @@
         <v>27140.11</v>
       </c>
       <c r="J86" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K86">
         <v>1</v>
@@ -8057,8 +9572,23 @@
       <c r="W86">
         <v>-0.49</v>
       </c>
+      <c r="X86">
+        <v>-9.49</v>
+      </c>
+      <c r="Y86">
+        <v>72.19</v>
+      </c>
+      <c r="Z86">
+        <v>0.68</v>
+      </c>
       <c r="AC86" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
       </c>
       <c r="AF86">
         <v>0</v>
@@ -8066,22 +9596,25 @@
       <c r="AG86">
         <v>4.392378807067871</v>
       </c>
-      <c r="AH86" t="s">
-        <v>177</v>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C87">
         <v>688716</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87">
         <v>2.1</v>
@@ -8099,7 +9632,7 @@
         <v>52871.05</v>
       </c>
       <c r="J87" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K87">
         <v>5</v>
@@ -8140,8 +9673,23 @@
       <c r="W87">
         <v>0.63</v>
       </c>
+      <c r="X87">
+        <v>-8.23</v>
+      </c>
+      <c r="Y87">
+        <v>55.73</v>
+      </c>
+      <c r="Z87">
+        <v>1.42</v>
+      </c>
       <c r="AC87" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -8149,22 +9697,25 @@
       <c r="AG87">
         <v>3.513778448104858</v>
       </c>
-      <c r="AH87" t="s">
-        <v>177</v>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C88">
         <v>688767</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88">
         <v>-2.6</v>
@@ -8182,7 +9733,7 @@
         <v>16981.24</v>
       </c>
       <c r="J88" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K88">
         <v>4</v>
@@ -8223,8 +9774,23 @@
       <c r="W88">
         <v>-0.11</v>
       </c>
+      <c r="X88">
+        <v>-4.29</v>
+      </c>
+      <c r="Y88">
+        <v>45</v>
+      </c>
+      <c r="Z88">
+        <v>2.67</v>
+      </c>
       <c r="AC88" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
       </c>
       <c r="AF88">
         <v>0</v>
@@ -8232,8 +9798,11 @@
       <c r="AG88">
         <v>4.996474742889404</v>
       </c>
-      <c r="AH88" t="s">
-        <v>177</v>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
